--- a/datafiles0202.xlsx
+++ b/datafiles0202.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -179,9 +179,6 @@
   </si>
   <si>
     <t xml:space="preserve">除荷時</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ダミーデータ→</t>
   </si>
   <si>
     <t xml:space="preserve">紙が抜ける</t>
@@ -197,13 +194,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="H:MM"/>
     <numFmt numFmtId="166" formatCode="0.00_ "/>
-    <numFmt numFmtId="167" formatCode="0.00"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
     <numFmt numFmtId="168" formatCode="0.0_ "/>
-    <numFmt numFmtId="169" formatCode="0%"/>
+    <numFmt numFmtId="169" formatCode="0.00"/>
+    <numFmt numFmtId="170" formatCode="0%"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -325,7 +323,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -386,7 +384,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -426,6 +424,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -442,7 +444,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -533,8 +535,8 @@
   </sheetPr>
   <dimension ref="A1:W24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Y37" activeCellId="0" sqref="Y37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -716,39 +718,39 @@
       </c>
       <c r="H3" s="2" t="n">
         <f aca="false">H4</f>
-        <v>0.629999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="I3" s="10" t="n">
         <f aca="false">I4</f>
-        <v>11.52</v>
+        <v>11.14</v>
       </c>
       <c r="J3" s="10" t="n">
         <f aca="false">J4</f>
-        <v>29.31</v>
+        <v>29.29</v>
       </c>
       <c r="K3" s="1" t="n">
         <f aca="false">K4+G3-G4</f>
-        <v>9.74</v>
+        <v>9.44000000000001</v>
       </c>
       <c r="L3" s="11" t="n">
         <f aca="false">0.25*PI()*J3*J3*K3</f>
-        <v>6571.74154588518</v>
+        <v>6360.63711458517</v>
       </c>
       <c r="M3" s="12" t="n">
         <f aca="false">I3/L3*1000</f>
-        <v>1.75295999082817</v>
+        <v>1.75139688042501</v>
       </c>
       <c r="N3" s="10" t="n">
         <f aca="false">N4</f>
-        <v>9.85</v>
+        <v>9.56</v>
       </c>
       <c r="O3" s="1" t="n">
         <f aca="false">I3-N3</f>
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="P3" s="12" t="n">
         <f aca="false">N3/L3*1000</f>
-        <v>1.49884165882444</v>
+        <v>1.50299409128035</v>
       </c>
       <c r="Q3" s="12" t="n">
         <f aca="false">Q4</f>
@@ -756,26 +758,26 @@
       </c>
       <c r="R3" s="13" t="n">
         <f aca="false">O3/N3</f>
-        <v>0.169543147208122</v>
+        <v>0.165271966527197</v>
       </c>
       <c r="S3" s="1" t="n">
         <f aca="false">O3*1000</f>
-        <v>1670</v>
+        <v>1580</v>
       </c>
       <c r="T3" s="14" t="n">
         <f aca="false">N3/Q3*1000</f>
-        <v>3648.14814814815</v>
-      </c>
-      <c r="U3" s="13" t="n">
+        <v>3540.74074074074</v>
+      </c>
+      <c r="U3" s="15" t="n">
         <f aca="false">(L3-T3)/L3</f>
-        <v>0.444873459694654</v>
-      </c>
-      <c r="V3" s="13" t="n">
+        <v>0.443335521748019</v>
+      </c>
+      <c r="V3" s="15" t="n">
         <f aca="false">S3/(L3-T3)</f>
-        <v>0.57121486226253</v>
+        <v>0.56030427736816</v>
       </c>
       <c r="W3" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -794,7 +796,7 @@
       <c r="E4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F4" s="15" t="n">
+      <c r="F4" s="9" t="n">
         <v>0.416666666666667</v>
       </c>
       <c r="G4" s="1" t="n">
@@ -802,39 +804,39 @@
       </c>
       <c r="H4" s="2" t="n">
         <f aca="false">H5</f>
-        <v>0.629999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="I4" s="10" t="n">
         <f aca="false">I5</f>
-        <v>11.52</v>
+        <v>11.14</v>
       </c>
       <c r="J4" s="10" t="n">
         <f aca="false">J5</f>
-        <v>29.31</v>
+        <v>29.29</v>
       </c>
       <c r="K4" s="1" t="n">
         <f aca="false">K5+G4-G5</f>
-        <v>9.69</v>
+        <v>9.39</v>
       </c>
       <c r="L4" s="11" t="n">
         <f aca="false">0.25*PI()*J4*J4*K4</f>
-        <v>6538.00570632725</v>
+        <v>6326.94729935962</v>
       </c>
       <c r="M4" s="12" t="n">
         <f aca="false">I4/L4*1000</f>
-        <v>1.76200519201924</v>
+        <v>1.7607227424081</v>
       </c>
       <c r="N4" s="10" t="n">
         <f aca="false">N5</f>
-        <v>9.85</v>
+        <v>9.56</v>
       </c>
       <c r="O4" s="1" t="n">
         <f aca="false">I4-N4</f>
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="P4" s="12" t="n">
         <f aca="false">N4/L4*1000</f>
-        <v>1.50657561991228</v>
+        <v>1.5109972547057</v>
       </c>
       <c r="Q4" s="12" t="n">
         <f aca="false">Q5</f>
@@ -842,23 +844,23 @@
       </c>
       <c r="R4" s="13" t="n">
         <f aca="false">O4/N4</f>
-        <v>0.169543147208122</v>
+        <v>0.165271966527197</v>
       </c>
       <c r="S4" s="1" t="n">
         <f aca="false">O4*1000</f>
-        <v>1670</v>
+        <v>1580</v>
       </c>
       <c r="T4" s="14" t="n">
         <f aca="false">N4/Q4*1000</f>
-        <v>3648.14814814815</v>
-      </c>
-      <c r="U4" s="13" t="n">
+        <v>3540.74074074074</v>
+      </c>
+      <c r="U4" s="15" t="n">
         <f aca="false">(L4-T4)/L4</f>
-        <v>0.442009029662118</v>
-      </c>
-      <c r="V4" s="13" t="n">
+        <v>0.440371387146038</v>
+      </c>
+      <c r="V4" s="15" t="n">
         <f aca="false">S4/(L4-T4)</f>
-        <v>0.577883153885366</v>
+        <v>0.567079276700579</v>
       </c>
       <c r="W4" s="1" t="n">
         <v>1</v>
@@ -880,7 +882,7 @@
       <c r="E5" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F5" s="15" t="n">
+      <c r="F5" s="9" t="n">
         <v>0.444444444444444</v>
       </c>
       <c r="G5" s="1" t="n">
@@ -888,39 +890,39 @@
       </c>
       <c r="H5" s="2" t="n">
         <f aca="false">H6</f>
-        <v>0.629999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="I5" s="10" t="n">
         <f aca="false">I6</f>
-        <v>11.52</v>
+        <v>11.14</v>
       </c>
       <c r="J5" s="10" t="n">
         <f aca="false">J6</f>
-        <v>29.31</v>
+        <v>29.29</v>
       </c>
       <c r="K5" s="1" t="n">
         <f aca="false">K6+G5-G6</f>
-        <v>9.67</v>
+        <v>9.37</v>
       </c>
       <c r="L5" s="11" t="n">
         <f aca="false">0.25*PI()*J5*J5*K5</f>
-        <v>6524.51137050408</v>
+        <v>6313.47137326939</v>
       </c>
       <c r="M5" s="12" t="n">
         <f aca="false">I5/L5*1000</f>
-        <v>1.76564946335743</v>
+        <v>1.76448095530545</v>
       </c>
       <c r="N5" s="10" t="n">
         <f aca="false">N6</f>
-        <v>9.85</v>
+        <v>9.56</v>
       </c>
       <c r="O5" s="1" t="n">
         <f aca="false">I5-N5</f>
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="P5" s="12" t="n">
         <f aca="false">N5/L5*1000</f>
-        <v>1.50969159844364</v>
+        <v>1.51422243561222</v>
       </c>
       <c r="Q5" s="12" t="n">
         <f aca="false">Q6</f>
@@ -928,23 +930,23 @@
       </c>
       <c r="R5" s="13" t="n">
         <f aca="false">O5/N5</f>
-        <v>0.169543147208122</v>
+        <v>0.165271966527197</v>
       </c>
       <c r="S5" s="1" t="n">
         <f aca="false">O5*1000</f>
-        <v>1670</v>
+        <v>1580</v>
       </c>
       <c r="T5" s="14" t="n">
         <f aca="false">N5/Q5*1000</f>
-        <v>3648.14814814815</v>
-      </c>
-      <c r="U5" s="13" t="n">
+        <v>3540.74074074074</v>
+      </c>
+      <c r="U5" s="15" t="n">
         <f aca="false">(L5-T5)/L5</f>
-        <v>0.440854963539393</v>
-      </c>
-      <c r="V5" s="13" t="n">
+        <v>0.439176875699178</v>
+      </c>
+      <c r="V5" s="15" t="n">
         <f aca="false">S5/(L5-T5)</f>
-        <v>0.58059426814398</v>
+        <v>0.569835375086214</v>
       </c>
       <c r="W5" s="1" t="n">
         <v>1</v>
@@ -966,7 +968,7 @@
       <c r="E6" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F6" s="15" t="n">
+      <c r="F6" s="9" t="n">
         <v>0.472222222222222</v>
       </c>
       <c r="G6" s="1" t="n">
@@ -974,39 +976,39 @@
       </c>
       <c r="H6" s="2" t="n">
         <f aca="false">H7</f>
-        <v>0.629999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="I6" s="10" t="n">
         <f aca="false">I7</f>
-        <v>11.52</v>
+        <v>11.14</v>
       </c>
       <c r="J6" s="10" t="n">
         <f aca="false">J7</f>
-        <v>29.31</v>
+        <v>29.29</v>
       </c>
       <c r="K6" s="1" t="n">
         <f aca="false">K7+G6-G7</f>
-        <v>9.67</v>
+        <v>9.37</v>
       </c>
       <c r="L6" s="11" t="n">
         <f aca="false">0.25*PI()*J6*J6*K6</f>
-        <v>6524.51137050408</v>
+        <v>6313.47137326939</v>
       </c>
       <c r="M6" s="12" t="n">
         <f aca="false">I6/L6*1000</f>
-        <v>1.76564946335743</v>
+        <v>1.76448095530545</v>
       </c>
       <c r="N6" s="10" t="n">
         <f aca="false">N7</f>
-        <v>9.85</v>
+        <v>9.56</v>
       </c>
       <c r="O6" s="1" t="n">
         <f aca="false">I6-N6</f>
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="P6" s="12" t="n">
         <f aca="false">N6/L6*1000</f>
-        <v>1.50969159844364</v>
+        <v>1.51422243561222</v>
       </c>
       <c r="Q6" s="12" t="n">
         <f aca="false">Q7</f>
@@ -1014,23 +1016,23 @@
       </c>
       <c r="R6" s="13" t="n">
         <f aca="false">O6/N6</f>
-        <v>0.169543147208122</v>
+        <v>0.165271966527197</v>
       </c>
       <c r="S6" s="1" t="n">
         <f aca="false">O6*1000</f>
-        <v>1670</v>
+        <v>1580</v>
       </c>
       <c r="T6" s="14" t="n">
         <f aca="false">N6/Q6*1000</f>
-        <v>3648.14814814815</v>
-      </c>
-      <c r="U6" s="13" t="n">
+        <v>3540.74074074074</v>
+      </c>
+      <c r="U6" s="15" t="n">
         <f aca="false">(L6-T6)/L6</f>
-        <v>0.440854963539393</v>
-      </c>
-      <c r="V6" s="13" t="n">
+        <v>0.439176875699178</v>
+      </c>
+      <c r="V6" s="15" t="n">
         <f aca="false">S6/(L6-T6)</f>
-        <v>0.58059426814398</v>
+        <v>0.569835375086214</v>
       </c>
       <c r="W6" s="1" t="n">
         <v>1</v>
@@ -1052,7 +1054,7 @@
       <c r="E7" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F7" s="15" t="n">
+      <c r="F7" s="9" t="n">
         <v>0.5</v>
       </c>
       <c r="G7" s="1" t="n">
@@ -1060,39 +1062,39 @@
       </c>
       <c r="H7" s="2" t="n">
         <f aca="false">H8</f>
-        <v>0.629999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="I7" s="10" t="n">
         <f aca="false">I8</f>
-        <v>11.52</v>
+        <v>11.14</v>
       </c>
       <c r="J7" s="10" t="n">
         <f aca="false">J8</f>
-        <v>29.31</v>
+        <v>29.29</v>
       </c>
       <c r="K7" s="1" t="n">
         <f aca="false">K8+G7-G8</f>
-        <v>9.67</v>
+        <v>9.37</v>
       </c>
       <c r="L7" s="11" t="n">
         <f aca="false">0.25*PI()*J7*J7*K7</f>
-        <v>6524.51137050408</v>
+        <v>6313.47137326939</v>
       </c>
       <c r="M7" s="12" t="n">
         <f aca="false">I7/L7*1000</f>
-        <v>1.76564946335743</v>
+        <v>1.76448095530545</v>
       </c>
       <c r="N7" s="10" t="n">
         <f aca="false">N8</f>
-        <v>9.85</v>
+        <v>9.56</v>
       </c>
       <c r="O7" s="1" t="n">
         <f aca="false">I7-N7</f>
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="P7" s="12" t="n">
         <f aca="false">N7/L7*1000</f>
-        <v>1.50969159844364</v>
+        <v>1.51422243561222</v>
       </c>
       <c r="Q7" s="12" t="n">
         <f aca="false">Q8</f>
@@ -1100,23 +1102,23 @@
       </c>
       <c r="R7" s="13" t="n">
         <f aca="false">O7/N7</f>
-        <v>0.169543147208122</v>
+        <v>0.165271966527197</v>
       </c>
       <c r="S7" s="1" t="n">
         <f aca="false">O7*1000</f>
-        <v>1670</v>
+        <v>1580</v>
       </c>
       <c r="T7" s="14" t="n">
         <f aca="false">N7/Q7*1000</f>
-        <v>3648.14814814815</v>
-      </c>
-      <c r="U7" s="13" t="n">
+        <v>3540.74074074074</v>
+      </c>
+      <c r="U7" s="15" t="n">
         <f aca="false">(L7-T7)/L7</f>
-        <v>0.440854963539393</v>
-      </c>
-      <c r="V7" s="13" t="n">
+        <v>0.439176875699178</v>
+      </c>
+      <c r="V7" s="15" t="n">
         <f aca="false">S7/(L7-T7)</f>
-        <v>0.58059426814398</v>
+        <v>0.569835375086214</v>
       </c>
       <c r="W7" s="1" t="n">
         <v>1</v>
@@ -1138,7 +1140,7 @@
       <c r="E8" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F8" s="15" t="n">
+      <c r="F8" s="9" t="n">
         <v>0.510416666666667</v>
       </c>
       <c r="G8" s="1" t="n">
@@ -1146,39 +1148,39 @@
       </c>
       <c r="H8" s="2" t="n">
         <f aca="false">H9</f>
-        <v>0.629999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="I8" s="10" t="n">
         <f aca="false">I9</f>
-        <v>11.52</v>
+        <v>11.14</v>
       </c>
       <c r="J8" s="10" t="n">
         <f aca="false">J9</f>
-        <v>29.31</v>
+        <v>29.29</v>
       </c>
       <c r="K8" s="1" t="n">
         <f aca="false">K9+G8-G9</f>
-        <v>9.24</v>
+        <v>8.94000000000001</v>
       </c>
       <c r="L8" s="11" t="n">
         <f aca="false">0.25*PI()*J8*J8*K8</f>
-        <v>6234.38315030586</v>
+        <v>6023.7389623296</v>
       </c>
       <c r="M8" s="12" t="n">
         <f aca="false">I8/L8*1000</f>
-        <v>1.847817133189</v>
+        <v>1.84934972608636</v>
       </c>
       <c r="N8" s="10" t="n">
         <f aca="false">N9</f>
-        <v>9.85</v>
+        <v>9.56</v>
       </c>
       <c r="O8" s="1" t="n">
         <f aca="false">I8-N8</f>
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="P8" s="12" t="n">
         <f aca="false">N8/L8*1000</f>
-        <v>1.57994780919372</v>
+        <v>1.58705416349961</v>
       </c>
       <c r="Q8" s="12" t="n">
         <f aca="false">Q9</f>
@@ -1186,26 +1188,26 @@
       </c>
       <c r="R8" s="13" t="n">
         <f aca="false">O8/N8</f>
-        <v>0.169543147208122</v>
+        <v>0.165271966527197</v>
       </c>
       <c r="S8" s="1" t="n">
         <f aca="false">O8*1000</f>
-        <v>1670</v>
+        <v>1580</v>
       </c>
       <c r="T8" s="14" t="n">
         <f aca="false">N8/Q8*1000</f>
-        <v>3648.14814814815</v>
-      </c>
-      <c r="U8" s="13" t="n">
+        <v>3540.74074074074</v>
+      </c>
+      <c r="U8" s="15" t="n">
         <f aca="false">(L8-T8)/L8</f>
-        <v>0.414834144743066</v>
-      </c>
-      <c r="V8" s="13" t="n">
+        <v>0.412202161666812</v>
+      </c>
+      <c r="V8" s="15" t="n">
         <f aca="false">S8/(L8-T8)</f>
-        <v>0.645726315901962</v>
+        <v>0.636327479521497</v>
       </c>
       <c r="W8" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1224,7 +1226,7 @@
       <c r="E9" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F9" s="15" t="n">
+      <c r="F9" s="9" t="n">
         <v>0.53125</v>
       </c>
       <c r="G9" s="1" t="n">
@@ -1232,39 +1234,39 @@
       </c>
       <c r="H9" s="2" t="n">
         <f aca="false">H10</f>
-        <v>0.629999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="I9" s="10" t="n">
         <f aca="false">I10</f>
-        <v>11.52</v>
+        <v>11.14</v>
       </c>
       <c r="J9" s="10" t="n">
         <f aca="false">J10</f>
-        <v>29.31</v>
+        <v>29.29</v>
       </c>
       <c r="K9" s="1" t="n">
         <f aca="false">K10+G9-G10</f>
-        <v>9.24</v>
+        <v>8.94000000000001</v>
       </c>
       <c r="L9" s="11" t="n">
         <f aca="false">0.25*PI()*J9*J9*K9</f>
-        <v>6234.38315030586</v>
+        <v>6023.7389623296</v>
       </c>
       <c r="M9" s="12" t="n">
         <f aca="false">I9/L9*1000</f>
-        <v>1.847817133189</v>
+        <v>1.84934972608636</v>
       </c>
       <c r="N9" s="10" t="n">
         <f aca="false">N10</f>
-        <v>9.85</v>
+        <v>9.56</v>
       </c>
       <c r="O9" s="1" t="n">
         <f aca="false">I9-N9</f>
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="P9" s="12" t="n">
         <f aca="false">N9/L9*1000</f>
-        <v>1.57994780919372</v>
+        <v>1.58705416349961</v>
       </c>
       <c r="Q9" s="12" t="n">
         <f aca="false">Q10</f>
@@ -1272,23 +1274,23 @@
       </c>
       <c r="R9" s="13" t="n">
         <f aca="false">O9/N9</f>
-        <v>0.169543147208122</v>
+        <v>0.165271966527197</v>
       </c>
       <c r="S9" s="1" t="n">
         <f aca="false">O9*1000</f>
-        <v>1670</v>
+        <v>1580</v>
       </c>
       <c r="T9" s="14" t="n">
         <f aca="false">N9/Q9*1000</f>
-        <v>3648.14814814815</v>
-      </c>
-      <c r="U9" s="13" t="n">
+        <v>3540.74074074074</v>
+      </c>
+      <c r="U9" s="15" t="n">
         <f aca="false">(L9-T9)/L9</f>
-        <v>0.414834144743066</v>
-      </c>
-      <c r="V9" s="13" t="n">
+        <v>0.412202161666812</v>
+      </c>
+      <c r="V9" s="15" t="n">
         <f aca="false">S9/(L9-T9)</f>
-        <v>0.645726315901962</v>
+        <v>0.636327479521497</v>
       </c>
       <c r="W9" s="1" t="n">
         <v>1</v>
@@ -1318,39 +1320,39 @@
       </c>
       <c r="H10" s="2" t="n">
         <f aca="false">H11</f>
-        <v>0.629999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="I10" s="10" t="n">
         <f aca="false">I11</f>
-        <v>11.52</v>
+        <v>11.14</v>
       </c>
       <c r="J10" s="10" t="n">
         <f aca="false">J11</f>
-        <v>29.31</v>
+        <v>29.29</v>
       </c>
       <c r="K10" s="1" t="n">
         <f aca="false">K11+G10-G11</f>
-        <v>9.24</v>
+        <v>8.94000000000001</v>
       </c>
       <c r="L10" s="11" t="n">
         <f aca="false">0.25*PI()*J10*J10*K10</f>
-        <v>6234.38315030586</v>
+        <v>6023.7389623296</v>
       </c>
       <c r="M10" s="12" t="n">
         <f aca="false">I10/L10*1000</f>
-        <v>1.847817133189</v>
+        <v>1.84934972608636</v>
       </c>
       <c r="N10" s="10" t="n">
         <f aca="false">N11</f>
-        <v>9.85</v>
+        <v>9.56</v>
       </c>
       <c r="O10" s="1" t="n">
         <f aca="false">I10-N10</f>
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="P10" s="12" t="n">
         <f aca="false">N10/L10*1000</f>
-        <v>1.57994780919372</v>
+        <v>1.58705416349961</v>
       </c>
       <c r="Q10" s="12" t="n">
         <f aca="false">Q11</f>
@@ -1358,23 +1360,23 @@
       </c>
       <c r="R10" s="13" t="n">
         <f aca="false">O10/N10</f>
-        <v>0.169543147208122</v>
+        <v>0.165271966527197</v>
       </c>
       <c r="S10" s="1" t="n">
         <f aca="false">O10*1000</f>
-        <v>1670</v>
+        <v>1580</v>
       </c>
       <c r="T10" s="14" t="n">
         <f aca="false">N10/Q10*1000</f>
-        <v>3648.14814814815</v>
-      </c>
-      <c r="U10" s="13" t="n">
+        <v>3540.74074074074</v>
+      </c>
+      <c r="U10" s="15" t="n">
         <f aca="false">(L10-T10)/L10</f>
-        <v>0.414834144743066</v>
-      </c>
-      <c r="V10" s="13" t="n">
+        <v>0.412202161666812</v>
+      </c>
+      <c r="V10" s="15" t="n">
         <f aca="false">S10/(L10-T10)</f>
-        <v>0.645726315901962</v>
+        <v>0.636327479521497</v>
       </c>
       <c r="W10" s="1" t="n">
         <v>1</v>
@@ -1396,7 +1398,7 @@
       <c r="E11" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F11" s="15" t="n">
+      <c r="F11" s="9" t="n">
         <v>0.579861111111111</v>
       </c>
       <c r="G11" s="1" t="n">
@@ -1404,39 +1406,39 @@
       </c>
       <c r="H11" s="2" t="n">
         <f aca="false">H12</f>
-        <v>0.629999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="I11" s="10" t="n">
         <f aca="false">I12</f>
-        <v>11.52</v>
+        <v>11.14</v>
       </c>
       <c r="J11" s="10" t="n">
         <f aca="false">J12</f>
-        <v>29.31</v>
+        <v>29.29</v>
       </c>
       <c r="K11" s="1" t="n">
         <f aca="false">K12+G11-G12</f>
-        <v>9.24</v>
+        <v>8.94000000000001</v>
       </c>
       <c r="L11" s="11" t="n">
         <f aca="false">0.25*PI()*J11*J11*K11</f>
-        <v>6234.38315030586</v>
+        <v>6023.7389623296</v>
       </c>
       <c r="M11" s="12" t="n">
         <f aca="false">I11/L11*1000</f>
-        <v>1.847817133189</v>
+        <v>1.84934972608636</v>
       </c>
       <c r="N11" s="10" t="n">
         <f aca="false">N12</f>
-        <v>9.85</v>
+        <v>9.56</v>
       </c>
       <c r="O11" s="1" t="n">
         <f aca="false">I11-N11</f>
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="P11" s="12" t="n">
         <f aca="false">N11/L11*1000</f>
-        <v>1.57994780919372</v>
+        <v>1.58705416349961</v>
       </c>
       <c r="Q11" s="12" t="n">
         <f aca="false">Q12</f>
@@ -1444,23 +1446,23 @@
       </c>
       <c r="R11" s="13" t="n">
         <f aca="false">O11/N11</f>
-        <v>0.169543147208122</v>
+        <v>0.165271966527197</v>
       </c>
       <c r="S11" s="1" t="n">
         <f aca="false">O11*1000</f>
-        <v>1670</v>
+        <v>1580</v>
       </c>
       <c r="T11" s="14" t="n">
         <f aca="false">N11/Q11*1000</f>
-        <v>3648.14814814815</v>
-      </c>
-      <c r="U11" s="13" t="n">
+        <v>3540.74074074074</v>
+      </c>
+      <c r="U11" s="15" t="n">
         <f aca="false">(L11-T11)/L11</f>
-        <v>0.414834144743066</v>
-      </c>
-      <c r="V11" s="13" t="n">
+        <v>0.412202161666812</v>
+      </c>
+      <c r="V11" s="15" t="n">
         <f aca="false">S11/(L11-T11)</f>
-        <v>0.645726315901962</v>
+        <v>0.636327479521497</v>
       </c>
       <c r="W11" s="1" t="n">
         <v>1</v>
@@ -1482,7 +1484,7 @@
       <c r="E12" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F12" s="15" t="n">
+      <c r="F12" s="9" t="n">
         <v>0.586805555555556</v>
       </c>
       <c r="G12" s="1" t="n">
@@ -1490,39 +1492,39 @@
       </c>
       <c r="H12" s="2" t="n">
         <f aca="false">H13</f>
-        <v>0.629999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="I12" s="10" t="n">
         <f aca="false">I13</f>
-        <v>11.52</v>
+        <v>11.14</v>
       </c>
       <c r="J12" s="10" t="n">
         <f aca="false">J13</f>
-        <v>29.31</v>
+        <v>29.29</v>
       </c>
       <c r="K12" s="1" t="n">
         <f aca="false">K13+G12-G13</f>
-        <v>8.725</v>
+        <v>8.425</v>
       </c>
       <c r="L12" s="11" t="n">
         <f aca="false">0.25*PI()*J12*J12*K12</f>
-        <v>5886.90400285916</v>
+        <v>5676.73386550636</v>
       </c>
       <c r="M12" s="12" t="n">
         <f aca="false">I12/L12*1000</f>
-        <v>1.95688599549185</v>
+        <v>1.96239602981746</v>
       </c>
       <c r="N12" s="10" t="n">
         <f aca="false">N13</f>
-        <v>9.85</v>
+        <v>9.56</v>
       </c>
       <c r="O12" s="1" t="n">
         <f aca="false">I12-N12</f>
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="P12" s="12" t="n">
         <f aca="false">N12/L12*1000</f>
-        <v>1.67320547357593</v>
+        <v>1.68406696993312</v>
       </c>
       <c r="Q12" s="12" t="n">
         <f aca="false">Q13</f>
@@ -1530,26 +1532,26 @@
       </c>
       <c r="R12" s="13" t="n">
         <f aca="false">O12/N12</f>
-        <v>0.169543147208122</v>
+        <v>0.165271966527197</v>
       </c>
       <c r="S12" s="1" t="n">
         <f aca="false">O12*1000</f>
-        <v>1670</v>
+        <v>1580</v>
       </c>
       <c r="T12" s="14" t="n">
         <f aca="false">N12/Q12*1000</f>
-        <v>3648.14814814815</v>
-      </c>
-      <c r="U12" s="13" t="n">
+        <v>3540.74074074074</v>
+      </c>
+      <c r="U12" s="15" t="n">
         <f aca="false">(L12-T12)/L12</f>
-        <v>0.380294269045951</v>
-      </c>
-      <c r="V12" s="13" t="n">
+        <v>0.376271492617365</v>
+      </c>
+      <c r="V12" s="15" t="n">
         <f aca="false">S12/(L12-T12)</f>
-        <v>0.745950031347019</v>
+        <v>0.739702755444669</v>
       </c>
       <c r="W12" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1568,7 +1570,7 @@
       <c r="E13" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F13" s="15" t="n">
+      <c r="F13" s="9" t="n">
         <v>0.659722222222222</v>
       </c>
       <c r="G13" s="1" t="n">
@@ -1576,39 +1578,39 @@
       </c>
       <c r="H13" s="2" t="n">
         <f aca="false">H14</f>
-        <v>0.629999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="I13" s="10" t="n">
         <f aca="false">I14</f>
-        <v>11.52</v>
+        <v>11.14</v>
       </c>
       <c r="J13" s="10" t="n">
         <f aca="false">J14</f>
-        <v>29.31</v>
+        <v>29.29</v>
       </c>
       <c r="K13" s="1" t="n">
         <f aca="false">K14+G13-G14</f>
-        <v>8.68</v>
+        <v>8.38</v>
       </c>
       <c r="L13" s="11" t="n">
         <f aca="false">0.25*PI()*J13*J13*K13</f>
-        <v>5856.54174725702</v>
+        <v>5646.41303180336</v>
       </c>
       <c r="M13" s="12" t="n">
         <f aca="false">I13/L13*1000</f>
-        <v>1.96703114178184</v>
+        <v>1.9729339559919</v>
       </c>
       <c r="N13" s="10" t="n">
         <f aca="false">N14</f>
-        <v>9.85</v>
+        <v>9.56</v>
       </c>
       <c r="O13" s="1" t="n">
         <f aca="false">I13-N13</f>
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="P13" s="12" t="n">
         <f aca="false">N13/L13*1000</f>
-        <v>1.6818799259159</v>
+        <v>1.69311028898407</v>
       </c>
       <c r="Q13" s="12" t="n">
         <f aca="false">Q14</f>
@@ -1616,23 +1618,23 @@
       </c>
       <c r="R13" s="13" t="n">
         <f aca="false">O13/N13</f>
-        <v>0.169543147208122</v>
+        <v>0.165271966527197</v>
       </c>
       <c r="S13" s="1" t="n">
         <f aca="false">O13*1000</f>
-        <v>1670</v>
+        <v>1580</v>
       </c>
       <c r="T13" s="14" t="n">
         <f aca="false">N13/Q13*1000</f>
-        <v>3648.14814814815</v>
-      </c>
-      <c r="U13" s="13" t="n">
+        <v>3540.74074074074</v>
+      </c>
+      <c r="U13" s="15" t="n">
         <f aca="false">(L13-T13)/L13</f>
-        <v>0.377081508920037</v>
-      </c>
-      <c r="V13" s="13" t="n">
+        <v>0.372922115191086</v>
+      </c>
+      <c r="V13" s="15" t="n">
         <f aca="false">S13/(L13-T13)</f>
-        <v>0.756205778115767</v>
+        <v>0.750354177478708</v>
       </c>
       <c r="W13" s="1" t="n">
         <v>1</v>
@@ -1654,7 +1656,7 @@
       <c r="E14" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F14" s="15" t="n">
+      <c r="F14" s="9" t="n">
         <v>0.666666666666667</v>
       </c>
       <c r="G14" s="1" t="n">
@@ -1662,39 +1664,39 @@
       </c>
       <c r="H14" s="2" t="n">
         <f aca="false">H15</f>
-        <v>0.629999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="I14" s="10" t="n">
         <f aca="false">I15</f>
-        <v>11.52</v>
+        <v>11.14</v>
       </c>
       <c r="J14" s="10" t="n">
         <f aca="false">J15</f>
-        <v>29.31</v>
+        <v>29.29</v>
       </c>
       <c r="K14" s="1" t="n">
         <f aca="false">K15+G14-G15</f>
-        <v>8.68</v>
+        <v>8.38</v>
       </c>
       <c r="L14" s="11" t="n">
         <f aca="false">0.25*PI()*J14*J14*K14</f>
-        <v>5856.54174725702</v>
+        <v>5646.41303180336</v>
       </c>
       <c r="M14" s="12" t="n">
         <f aca="false">I14/L14*1000</f>
-        <v>1.96703114178184</v>
+        <v>1.9729339559919</v>
       </c>
       <c r="N14" s="10" t="n">
         <f aca="false">N15</f>
-        <v>9.85</v>
+        <v>9.56</v>
       </c>
       <c r="O14" s="1" t="n">
         <f aca="false">I14-N14</f>
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="P14" s="12" t="n">
         <f aca="false">N14/L14*1000</f>
-        <v>1.6818799259159</v>
+        <v>1.69311028898407</v>
       </c>
       <c r="Q14" s="12" t="n">
         <f aca="false">Q15</f>
@@ -1702,23 +1704,23 @@
       </c>
       <c r="R14" s="13" t="n">
         <f aca="false">O14/N14</f>
-        <v>0.169543147208122</v>
+        <v>0.165271966527197</v>
       </c>
       <c r="S14" s="1" t="n">
         <f aca="false">O14*1000</f>
-        <v>1670</v>
+        <v>1580</v>
       </c>
       <c r="T14" s="14" t="n">
         <f aca="false">N14/Q14*1000</f>
-        <v>3648.14814814815</v>
-      </c>
-      <c r="U14" s="13" t="n">
+        <v>3540.74074074074</v>
+      </c>
+      <c r="U14" s="15" t="n">
         <f aca="false">(L14-T14)/L14</f>
-        <v>0.377081508920037</v>
-      </c>
-      <c r="V14" s="13" t="n">
+        <v>0.372922115191086</v>
+      </c>
+      <c r="V14" s="15" t="n">
         <f aca="false">S14/(L14-T14)</f>
-        <v>0.756205778115767</v>
+        <v>0.750354177478708</v>
       </c>
       <c r="W14" s="1" t="n">
         <v>1</v>
@@ -1740,7 +1742,7 @@
       <c r="E15" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F15" s="15" t="n">
+      <c r="F15" s="9" t="n">
         <v>0.673611111111111</v>
       </c>
       <c r="G15" s="1" t="n">
@@ -1748,39 +1750,39 @@
       </c>
       <c r="H15" s="2" t="n">
         <f aca="false">H16</f>
-        <v>0.629999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="I15" s="10" t="n">
         <f aca="false">I16</f>
-        <v>11.52</v>
+        <v>11.14</v>
       </c>
       <c r="J15" s="10" t="n">
         <f aca="false">J16</f>
-        <v>29.31</v>
+        <v>29.29</v>
       </c>
       <c r="K15" s="1" t="n">
         <f aca="false">K16+G15-G16</f>
-        <v>8.68</v>
+        <v>8.38</v>
       </c>
       <c r="L15" s="11" t="n">
         <f aca="false">0.25*PI()*J15*J15*K15</f>
-        <v>5856.54174725702</v>
+        <v>5646.41303180336</v>
       </c>
       <c r="M15" s="12" t="n">
         <f aca="false">I15/L15*1000</f>
-        <v>1.96703114178184</v>
+        <v>1.9729339559919</v>
       </c>
       <c r="N15" s="10" t="n">
         <f aca="false">N16</f>
-        <v>9.85</v>
+        <v>9.56</v>
       </c>
       <c r="O15" s="1" t="n">
         <f aca="false">I15-N15</f>
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="P15" s="12" t="n">
         <f aca="false">N15/L15*1000</f>
-        <v>1.6818799259159</v>
+        <v>1.69311028898407</v>
       </c>
       <c r="Q15" s="12" t="n">
         <f aca="false">Q16</f>
@@ -1788,23 +1790,23 @@
       </c>
       <c r="R15" s="13" t="n">
         <f aca="false">O15/N15</f>
-        <v>0.169543147208122</v>
+        <v>0.165271966527197</v>
       </c>
       <c r="S15" s="1" t="n">
         <f aca="false">O15*1000</f>
-        <v>1670</v>
+        <v>1580</v>
       </c>
       <c r="T15" s="14" t="n">
         <f aca="false">N15/Q15*1000</f>
-        <v>3648.14814814815</v>
-      </c>
-      <c r="U15" s="13" t="n">
+        <v>3540.74074074074</v>
+      </c>
+      <c r="U15" s="15" t="n">
         <f aca="false">(L15-T15)/L15</f>
-        <v>0.377081508920037</v>
-      </c>
-      <c r="V15" s="13" t="n">
+        <v>0.372922115191086</v>
+      </c>
+      <c r="V15" s="15" t="n">
         <f aca="false">S15/(L15-T15)</f>
-        <v>0.756205778115767</v>
+        <v>0.750354177478708</v>
       </c>
       <c r="W15" s="1" t="n">
         <v>1</v>
@@ -1826,7 +1828,7 @@
       <c r="E16" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F16" s="15" t="n">
+      <c r="F16" s="9" t="n">
         <v>0.684027777777778</v>
       </c>
       <c r="G16" s="1" t="n">
@@ -1834,39 +1836,39 @@
       </c>
       <c r="H16" s="2" t="n">
         <f aca="false">H18</f>
-        <v>0.629999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="I16" s="10" t="n">
         <f aca="false">I18</f>
-        <v>11.52</v>
+        <v>11.14</v>
       </c>
       <c r="J16" s="10" t="n">
         <f aca="false">J18</f>
-        <v>29.31</v>
+        <v>29.29</v>
       </c>
       <c r="K16" s="1" t="n">
         <f aca="false">K18+G16-G18</f>
-        <v>8.23</v>
+        <v>7.93</v>
       </c>
       <c r="L16" s="11" t="n">
         <f aca="false">0.25*PI()*J16*J16*K16</f>
-        <v>5552.91919123563</v>
+        <v>5343.20469477335</v>
       </c>
       <c r="M16" s="12" t="n">
         <f aca="false">I16/L16*1000</f>
-        <v>2.07458448489264</v>
+        <v>2.08489111616798</v>
       </c>
       <c r="N16" s="10" t="n">
         <f aca="false">N18</f>
-        <v>9.85</v>
+        <v>9.56</v>
       </c>
       <c r="O16" s="1" t="n">
         <f aca="false">I16-N16</f>
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="P16" s="12" t="n">
         <f aca="false">N16/L16*1000</f>
-        <v>1.77384176876671</v>
+        <v>1.78918842644218</v>
       </c>
       <c r="Q16" s="12" t="n">
         <f aca="false">Q18</f>
@@ -1874,26 +1876,26 @@
       </c>
       <c r="R16" s="13" t="n">
         <f aca="false">O16/N16</f>
-        <v>0.169543147208122</v>
+        <v>0.165271966527197</v>
       </c>
       <c r="S16" s="1" t="n">
         <f aca="false">O16*1000</f>
-        <v>1670</v>
+        <v>1580</v>
       </c>
       <c r="T16" s="14" t="n">
         <f aca="false">N16/Q16*1000</f>
-        <v>3648.14814814815</v>
-      </c>
-      <c r="U16" s="13" t="n">
+        <v>3540.74074074074</v>
+      </c>
+      <c r="U16" s="15" t="n">
         <f aca="false">(L16-T16)/L16</f>
-        <v>0.343021567123442</v>
-      </c>
-      <c r="V16" s="13" t="n">
+        <v>0.337337619836229</v>
+      </c>
+      <c r="V16" s="15" t="n">
         <f aca="false">S16/(L16-T16)</f>
-        <v>0.876745793706033</v>
+        <v>0.876577862467155</v>
       </c>
       <c r="W16" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1912,7 +1914,7 @@
       <c r="E17" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F17" s="15" t="n">
+      <c r="F17" s="9" t="n">
         <v>0.697916666666667</v>
       </c>
       <c r="G17" s="1" t="n">
@@ -1920,39 +1922,39 @@
       </c>
       <c r="H17" s="2" t="n">
         <f aca="false">H19</f>
-        <v>0.629999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="I17" s="10" t="n">
         <f aca="false">I19</f>
-        <v>11.52</v>
+        <v>11.14</v>
       </c>
       <c r="J17" s="10" t="n">
         <f aca="false">J19</f>
-        <v>29.31</v>
+        <v>29.29</v>
       </c>
       <c r="K17" s="1" t="n">
         <f aca="false">K19+G17-G19</f>
-        <v>8.21</v>
+        <v>7.91</v>
       </c>
       <c r="L17" s="11" t="n">
         <f aca="false">0.25*PI()*J17*J17*K17</f>
-        <v>5539.42485541245</v>
+        <v>5329.72876868313</v>
       </c>
       <c r="M17" s="12" t="n">
         <f aca="false">I17/L17*1000</f>
-        <v>2.07963828388141</v>
+        <v>2.09016264869938</v>
       </c>
       <c r="N17" s="10" t="n">
         <f aca="false">N19</f>
-        <v>9.85</v>
+        <v>9.56</v>
       </c>
       <c r="O17" s="1" t="n">
         <f aca="false">I17-N17</f>
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="P17" s="12" t="n">
         <f aca="false">N17/L17*1000</f>
-        <v>1.77816294238124</v>
+        <v>1.79371229098439</v>
       </c>
       <c r="Q17" s="12" t="n">
         <f aca="false">Q19</f>
@@ -1960,23 +1962,23 @@
       </c>
       <c r="R17" s="13" t="n">
         <f aca="false">O17/N17</f>
-        <v>0.169543147208122</v>
+        <v>0.165271966527197</v>
       </c>
       <c r="S17" s="1" t="n">
         <f aca="false">O17*1000</f>
-        <v>1670</v>
+        <v>1580</v>
       </c>
       <c r="T17" s="14" t="n">
         <f aca="false">N17/Q17*1000</f>
-        <v>3648.14814814815</v>
-      </c>
-      <c r="U17" s="13" t="n">
+        <v>3540.74074074074</v>
+      </c>
+      <c r="U17" s="15" t="n">
         <f aca="false">(L17-T17)/L17</f>
-        <v>0.341421132451392</v>
-      </c>
-      <c r="V17" s="13" t="n">
+        <v>0.335662114450227</v>
+      </c>
+      <c r="V17" s="15" t="n">
         <f aca="false">S17/(L17-T17)</f>
-        <v>0.883001410415307</v>
+        <v>0.883180868357876</v>
       </c>
       <c r="W17" s="1" t="n">
         <v>1</v>
@@ -1998,7 +2000,7 @@
       <c r="E18" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F18" s="15" t="n">
+      <c r="F18" s="9" t="n">
         <v>0.711805555555555</v>
       </c>
       <c r="G18" s="1" t="n">
@@ -2006,39 +2008,39 @@
       </c>
       <c r="H18" s="2" t="n">
         <f aca="false">H19</f>
-        <v>0.629999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="I18" s="10" t="n">
         <f aca="false">I19</f>
-        <v>11.52</v>
+        <v>11.14</v>
       </c>
       <c r="J18" s="10" t="n">
         <f aca="false">J19</f>
-        <v>29.31</v>
+        <v>29.29</v>
       </c>
       <c r="K18" s="1" t="n">
         <f aca="false">K19+G18-G19</f>
-        <v>8.21</v>
+        <v>7.91</v>
       </c>
       <c r="L18" s="11" t="n">
         <f aca="false">0.25*PI()*J18*J18*K18</f>
-        <v>5539.42485541245</v>
+        <v>5329.72876868313</v>
       </c>
       <c r="M18" s="12" t="n">
         <f aca="false">I18/L18*1000</f>
-        <v>2.07963828388141</v>
+        <v>2.09016264869938</v>
       </c>
       <c r="N18" s="10" t="n">
         <f aca="false">N19</f>
-        <v>9.85</v>
+        <v>9.56</v>
       </c>
       <c r="O18" s="1" t="n">
         <f aca="false">I18-N18</f>
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="P18" s="12" t="n">
         <f aca="false">N18/L18*1000</f>
-        <v>1.77816294238124</v>
+        <v>1.79371229098439</v>
       </c>
       <c r="Q18" s="12" t="n">
         <f aca="false">Q19</f>
@@ -2046,23 +2048,23 @@
       </c>
       <c r="R18" s="13" t="n">
         <f aca="false">O18/N18</f>
-        <v>0.169543147208122</v>
+        <v>0.165271966527197</v>
       </c>
       <c r="S18" s="1" t="n">
         <f aca="false">O18*1000</f>
-        <v>1670</v>
+        <v>1580</v>
       </c>
       <c r="T18" s="14" t="n">
         <f aca="false">N18/Q18*1000</f>
-        <v>3648.14814814815</v>
-      </c>
-      <c r="U18" s="13" t="n">
+        <v>3540.74074074074</v>
+      </c>
+      <c r="U18" s="15" t="n">
         <f aca="false">(L18-T18)/L18</f>
-        <v>0.341421132451392</v>
-      </c>
-      <c r="V18" s="13" t="n">
+        <v>0.335662114450227</v>
+      </c>
+      <c r="V18" s="15" t="n">
         <f aca="false">S18/(L18-T18)</f>
-        <v>0.883001410415307</v>
+        <v>0.883180868357876</v>
       </c>
       <c r="W18" s="1" t="n">
         <v>1</v>
@@ -2092,37 +2094,39 @@
       </c>
       <c r="H19" s="17" t="n">
         <f aca="false">G20-G19</f>
-        <v>0.629999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="I19" s="18" t="n">
-        <v>11.52</v>
+        <f aca="false">I20</f>
+        <v>11.14</v>
       </c>
       <c r="J19" s="18" t="n">
-        <v>29.31</v>
+        <f aca="false">J20</f>
+        <v>29.29</v>
       </c>
       <c r="K19" s="19" t="n">
         <f aca="false">K20-H19</f>
-        <v>8.21</v>
+        <v>7.91</v>
       </c>
       <c r="L19" s="20" t="n">
         <f aca="false">0.25*PI()*J19*J19*K19</f>
-        <v>5539.42485541246</v>
+        <v>5329.72876868312</v>
       </c>
       <c r="M19" s="21" t="n">
         <f aca="false">I19/L19*1000</f>
-        <v>2.07963828388141</v>
+        <v>2.09016264869938</v>
       </c>
       <c r="N19" s="18" t="n">
         <f aca="false">N20</f>
-        <v>9.85</v>
+        <v>9.56</v>
       </c>
       <c r="O19" s="8" t="n">
         <f aca="false">I19-N19</f>
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="P19" s="21" t="n">
         <f aca="false">N19/L19*1000</f>
-        <v>1.77816294238124</v>
+        <v>1.79371229098439</v>
       </c>
       <c r="Q19" s="22" t="n">
         <f aca="false">Q20</f>
@@ -2130,87 +2134,85 @@
       </c>
       <c r="R19" s="23" t="n">
         <f aca="false">O19/N19</f>
-        <v>0.169543147208122</v>
+        <v>0.165271966527197</v>
       </c>
       <c r="S19" s="8" t="n">
         <f aca="false">O19*1000</f>
-        <v>1670</v>
+        <v>1580</v>
       </c>
       <c r="T19" s="24" t="n">
         <f aca="false">N19/Q19*1000</f>
-        <v>3648.14814814815</v>
-      </c>
-      <c r="U19" s="23" t="n">
+        <v>3540.74074074074</v>
+      </c>
+      <c r="U19" s="25" t="n">
         <f aca="false">(L19-T19)/L19</f>
-        <v>0.341421132451392</v>
-      </c>
-      <c r="V19" s="23" t="n">
+        <v>0.335662114450227</v>
+      </c>
+      <c r="V19" s="25" t="n">
         <f aca="false">S19/(L19-T19)</f>
-        <v>0.883001410415306</v>
+        <v>0.883180868357877</v>
       </c>
       <c r="W19" s="8" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F20" s="25" t="s">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F20" s="26" t="s">
         <v>52</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="H20" s="26"/>
-      <c r="I20" s="27" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="H20" s="27"/>
+      <c r="I20" s="28" t="n">
         <v>11.14</v>
       </c>
-      <c r="J20" s="27" t="n">
+      <c r="J20" s="28" t="n">
         <v>29.29</v>
       </c>
-      <c r="K20" s="27" t="n">
+      <c r="K20" s="28" t="n">
         <v>8.84</v>
       </c>
-      <c r="M20" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="N20" s="27" t="n">
-        <v>9.85</v>
+      <c r="M20" s="12"/>
+      <c r="N20" s="28" t="n">
+        <v>9.56</v>
       </c>
       <c r="P20" s="12"/>
-      <c r="Q20" s="28" t="n">
+      <c r="Q20" s="29" t="n">
         <v>2.7</v>
       </c>
-      <c r="R20" s="29"/>
-      <c r="U20" s="29"/>
-      <c r="V20" s="29"/>
+      <c r="R20" s="30"/>
+      <c r="U20" s="30"/>
+      <c r="V20" s="30"/>
     </row>
     <row r="21" customFormat="false" ht="11" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G21" s="30" t="n">
+      <c r="G21" s="31" t="n">
         <v>10.19</v>
       </c>
-      <c r="H21" s="31"/>
+      <c r="H21" s="32"/>
     </row>
     <row r="22" customFormat="false" ht="11" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G22" s="1" t="n">
         <v>10.43</v>
       </c>
-      <c r="H22" s="26" t="s">
+      <c r="H22" s="27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="11" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G23" s="31" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="H23" s="32" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="11" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G23" s="30" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="H23" s="31" t="s">
+    <row r="24" customFormat="false" ht="11" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G24" s="31" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="H24" s="32" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="11" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G24" s="30" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="H24" s="31" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/datafiles0202.xlsx
+++ b/datafiles0202.xlsx
@@ -535,8 +535,8 @@
   </sheetPr>
   <dimension ref="A1:W24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="W17" activeCellId="0" sqref="W17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1900,7 +1900,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>49</v>
@@ -1986,7 +1986,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>50</v>
@@ -2072,7 +2072,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>51</v>
